--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -141,7 +141,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Đã gửi booking cho anh Hoàn…chưa nhận được Reply
-(03-05) Anh Hoàn đã Reply nhận được...
+(03-05) Anh Hoàn đã Reply nhận được…
+Liên lạc với anh Hoàn để support lấy vỏ rỗng…
 </t>
         </r>
       </text>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
   <si>
     <t xml:space="preserve">T NUMBER</t>
   </si>
@@ -306,6 +307,12 @@
   </si>
   <si>
     <t xml:space="preserve">ADNE 265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADNE 278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPH-HUANGPU</t>
   </si>
   <si>
     <t xml:space="preserve">Trước 10h ngày 08/05</t>
@@ -319,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -341,52 +348,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -436,36 +397,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF94070A"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -496,7 +433,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,46 +457,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -574,51 +471,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -634,46 +531,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Accent 1 5" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2 6" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3 7" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 4" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error 8" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote 9" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 10" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status 11" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text 12" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning 13" xfId="29" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -694,7 +581,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066B3"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -757,7 +644,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.29"/>
@@ -1100,7 +987,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1109,7 +996,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.29"/>
@@ -1254,16 +1141,22 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
@@ -1306,7 +1199,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>31</v>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -158,8 +158,9 @@
             <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Đã gửi Booking cho Shipper. 03/05 Hối gửi SI VGM để Submit không là ăn Shit.
-(3/5) Shipper đổi lại ngày ETD:10/05...đã thông báo cho các bên...hạn Submit là trước 10h 08/05
+          <t xml:space="preserve">-Đã gửi Booking cho Shipper. 03/05 Hối gửi SI VGM để Submit không là ăn Shit.
+-(3/5) Shipper đổi lại ngày ETD:10/05...đã thông báo cho các bên...hạn Submit là trước 10h 08/05
+-Đã Submit.
 </t>
         </r>
       </text>
@@ -169,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t xml:space="preserve">T NUMBER</t>
   </si>
@@ -310,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">ADNE 278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trước 15h ngày 08/05</t>
   </si>
   <si>
     <t xml:space="preserve">HPH-HUANGPU</t>
@@ -644,7 +648,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.29"/>
@@ -984,25 +988,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:AMJ19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="10" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="10" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1015" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1048,8 +1052,12 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-    </row>
-    <row r="4" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1063,8 +1071,12 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-    </row>
-    <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1078,8 +1090,12 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -1093,8 +1109,12 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1109,7 +1129,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1144,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1159,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
         <v>46</v>
       </c>
@@ -1150,17 +1170,19 @@
         <v>37</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1207,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1221,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>31</v>
@@ -1210,7 +1232,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1225,7 +1247,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
@@ -1290,7 +1312,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -1305,7 +1327,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
@@ -1320,7 +1342,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
         <v>45</v>
       </c>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FLG" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Done" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="FLG" sheetId="1" r:id="rId1"/>
+    <sheet name="Done" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Done!$A$2:$I$19</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">FLG!$A$2:$I$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Done!$A$2:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FLG!$A$2:$I$19</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,9 +24,9 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
     <comment ref="H3" authorId="0">
@@ -40,7 +39,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Word file</t>
+          <t>Word file</t>
         </r>
       </text>
     </comment>
@@ -48,14 +47,14 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Word file</t>
+          <t>Word file</t>
         </r>
       </text>
     </comment>
@@ -63,7 +62,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -79,14 +78,13 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Đã gửi Booking cho Shipper. 03/05 Hối gửi SI VGM để Submit không là ăn Shit.</t>
+          <t>Đã gửi Booking cho Shipper. 03/05 Hối gửi SI VGM để Submit không là ăn Shit.</t>
         </r>
       </text>
     </comment>
@@ -95,9 +93,10 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="H3" authorId="0">
@@ -110,7 +109,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Word file</t>
+          <t>Word file</t>
         </r>
       </text>
     </comment>
@@ -118,50 +117,118 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Word file</t>
+          <t>Word file</t>
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="H5" authorId="1">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+          </rPr>
+          <t>- Đã gửi Booking Note cho Shipper (Chờ lệnh kéo Cont từ đại lý).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Đã gửi booking cho anh Hoàn…chưa nhận được Reply
-(03-05) Anh Hoàn đã Reply nhận được…
-Liên lạc với anh Hoàn để support lấy vỏ rỗng…
+          <t>- Đã Submit SI, VGM.
+- Đã gửi Draft MBL cho anh Hoàn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Đã submit SI, VGM (Ontime).
+- Đang chờ Draft MBL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Đã Submit SI, VGM
+- Đã gửi HBL và Draft MBL (Kèm AMS) cho các bên liên quan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Submit SI, VGM trễ.
+- Đã gửi Draft MBL, HBL cho các bên liên quan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Đã Submit SI, VGM.
+- chưa làm AMS.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0">
+    <comment ref="H18" authorId="1">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">-Đã gửi Booking cho Shipper. 03/05 Hối gửi SI VGM để Submit không là ăn Shit.
--(3/5) Shipper đổi lại ngày ETD:10/05...đã thông báo cho các bên...hạn Submit là trước 10h 08/05
--Đã Submit.
-</t>
+          <t>- Đã gửi Booking cho Shipper Lành Vegitigi</t>
         </r>
       </text>
     </comment>
@@ -170,167 +237,202 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">T NUMBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-VGM DL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POL/POD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGITIGI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOVECO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trước 16h ngày 10/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPH-MONROVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trước 10h ngày 04/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCM-HOUSTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVIFOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trước 9h ngày 08/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCM-OAKLAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 259</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+  <si>
+    <t>T NUMBER</t>
+  </si>
+  <si>
+    <t>FACTORY</t>
+  </si>
+  <si>
+    <t>ETD</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>SI-VGM DL</t>
+  </si>
+  <si>
+    <t>CARRIER</t>
+  </si>
+  <si>
+    <t>POL/POD</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>ADNE 244</t>
+  </si>
+  <si>
+    <t>VEGITIGI</t>
+  </si>
+  <si>
+    <t>ADNE 246</t>
+  </si>
+  <si>
+    <t>ADNE 262</t>
+  </si>
+  <si>
+    <t>DOVECO</t>
+  </si>
+  <si>
+    <t>ADNE 247</t>
+  </si>
+  <si>
+    <t>ADNE 264</t>
+  </si>
+  <si>
+    <t>HUGE</t>
+  </si>
+  <si>
+    <t>ADNE 266</t>
+  </si>
+  <si>
+    <t>ADNE 257</t>
+  </si>
+  <si>
+    <t>ADNE 263</t>
+  </si>
+  <si>
+    <t>ADNE 271</t>
+  </si>
+  <si>
+    <t>12/05</t>
+  </si>
+  <si>
+    <t>16/06</t>
+  </si>
+  <si>
+    <t>Trước 16h ngày 10/05</t>
+  </si>
+  <si>
+    <t>CMA</t>
+  </si>
+  <si>
+    <t>HPH-MONROVIA</t>
+  </si>
+  <si>
+    <t>ADNE 260</t>
+  </si>
+  <si>
+    <t>PTF</t>
+  </si>
+  <si>
+    <t>07/05</t>
+  </si>
+  <si>
+    <t>06/06</t>
+  </si>
+  <si>
+    <t>Trước 10h ngày 04/05</t>
+  </si>
+  <si>
+    <t>COSCO</t>
+  </si>
+  <si>
+    <t>HCM-HOUSTON</t>
+  </si>
+  <si>
+    <t>LAVIFOOD</t>
+  </si>
+  <si>
+    <t>ADNE 267</t>
+  </si>
+  <si>
+    <t>ADNE 270</t>
+  </si>
+  <si>
+    <t>ADNE 274</t>
+  </si>
+  <si>
+    <t>10/05</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Trước 9h ngày 08/05</t>
+  </si>
+  <si>
+    <t>YML</t>
+  </si>
+  <si>
+    <t>HCM-OAKLAND</t>
+  </si>
+  <si>
+    <t>ADNE 259</t>
   </si>
   <si>
     <t xml:space="preserve">…… </t>
   </si>
   <si>
-    <t xml:space="preserve">ADNE 258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADNE 278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trước 15h ngày 08/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPH-HUANGPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trước 10h ngày 08/05</t>
+    <t>ADNE 258</t>
+  </si>
+  <si>
+    <t>ADNE 265</t>
+  </si>
+  <si>
+    <t>ADNE 278</t>
+  </si>
+  <si>
+    <t>Trước 15h ngày 08/05</t>
+  </si>
+  <si>
+    <t>HPH-HUANGPU</t>
+  </si>
+  <si>
+    <t>Trước 10h ngày 08/05</t>
+  </si>
+  <si>
+    <t>ADNE 279</t>
+  </si>
+  <si>
+    <t>14/05</t>
+  </si>
+  <si>
+    <t>30/05</t>
+  </si>
+  <si>
+    <t>Trước 12h ngày 11/05</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>HCM-LOS ANGELES</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ADNE 269</t>
+  </si>
+  <si>
+    <t>ANTESCO</t>
+  </si>
+  <si>
+    <t>17/05</t>
+  </si>
+  <si>
+    <t>09/06</t>
+  </si>
+  <si>
+    <t>Trước 10h ngày 16/05</t>
+  </si>
+  <si>
+    <t>ADNE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -339,22 +441,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -362,7 +449,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0066B3"/>
       <name val="Times New Roman"/>
@@ -370,7 +457,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF94070A"/>
       <name val="Times New Roman"/>
@@ -385,7 +472,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -393,12 +480,25 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -416,150 +516,113 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF87D1D1"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -618,46 +681,687 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2056" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="10" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.67"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="1018" width="12.140625" customWidth="1"/>
+    <col min="1019" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -686,7 +1390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -701,7 +1405,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -716,7 +1420,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -731,7 +1435,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -746,7 +1450,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -761,7 +1465,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
@@ -776,7 +1480,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
@@ -791,7 +1495,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -806,7 +1510,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -831,7 +1535,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -856,7 +1560,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -871,7 +1575,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
@@ -886,7 +1590,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>35</v>
       </c>
@@ -901,7 +1605,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
@@ -926,7 +1630,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -941,7 +1645,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
@@ -956,7 +1660,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>45</v>
       </c>
@@ -971,45 +1675,42 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:I19"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:AMJ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:AMJ20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="10" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1015" style="0" width="8.67"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="1014" width="12.140625" customWidth="1"/>
+    <col min="1015" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1051,13 +1752,15 @@
       <c r="F3" s="11"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AMG3"/>
+      <c r="AMH3"/>
+      <c r="AMI3"/>
+      <c r="AMJ3"/>
+    </row>
+    <row r="4" spans="1:1024" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1070,34 +1773,46 @@
       <c r="F4" s="11"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="AMG4" s="0"/>
-      <c r="AMH4" s="0"/>
-      <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AMG4"/>
+      <c r="AMH4"/>
+      <c r="AMI4"/>
+      <c r="AMJ4"/>
+    </row>
+    <row r="5" spans="1:1024" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="AMG5"/>
+      <c r="AMH5"/>
+      <c r="AMI5"/>
+      <c r="AMJ5"/>
+    </row>
+    <row r="6" spans="1:1024" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="AMG5" s="0"/>
-      <c r="AMH5" s="0"/>
-      <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
@@ -1108,30 +1823,38 @@
       <c r="F6" s="11"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="AMG6" s="0"/>
-      <c r="AMH6" s="0"/>
-      <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AMG6"/>
+      <c r="AMH6"/>
+      <c r="AMI6"/>
+      <c r="AMJ6"/>
+    </row>
+    <row r="7" spans="1:1024" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AMG7"/>
+      <c r="AMH7"/>
+      <c r="AMI7"/>
+      <c r="AMJ7"/>
+    </row>
+    <row r="8" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>16</v>
@@ -1142,11 +1865,13 @@
       <c r="F8" s="17"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>16</v>
@@ -1157,99 +1882,105 @@
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>33</v>
@@ -1260,34 +1991,28 @@
       <c r="F14" s="17"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
@@ -1312,39 +2037,59 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -1355,12 +2100,31 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I19"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="A2:I20">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+    <sortState ref="A5:I20">
+      <sortCondition ref="B2:B20"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -1692,7 +1692,7 @@
   <dimension ref="A2:AMJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLG" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Done!$A$2:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FLG!$A$2:$I$19</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -138,7 +138,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>- Đã gửi Booking Note cho Shipper (Chờ lệnh kéo Cont từ đại lý).</t>
+          <t>- Đã gửi Booking Note cho Shipper (Chờ lệnh kéo Cont từ đại lý).
+- (14/05) Đại lý báo CANCEL - Đã thông báo Shipper(Chưa phản hồi)</t>
         </r>
       </text>
     </comment>
@@ -153,7 +154,8 @@
             <charset val="1"/>
           </rPr>
           <t>- Đã Submit SI, VGM.
-- Đã gửi Draft MBL cho anh Hoàn</t>
+- Đã gửi Draft MBL cho anh Hoàn
+- (10/05) 4h Chiều đòi Debit - Đã có Debit Note từ hãng tàu, đang chờ hãng tàu chỉnh sửa - Đã lập lệnh, chờ Confirm OK từ hãng tàu về Debit</t>
         </r>
       </text>
     </comment>
@@ -168,7 +170,10 @@
             <family val="2"/>
           </rPr>
           <t>- Đã submit SI, VGM (Ontime).
-- Đang chờ Draft MBL</t>
+- Đang chờ Draft MBL
+-(10/05) Đã gửi Draf Bill cho anh Hoàn, chờ ảnh phản hồi - Đang bị kiểm hóa các kiểu…(Phức tạp).
+- Rớt tàu do kiểm hóa, đã đổi lại Booking Note mới - Đã gửi cho các bên.
+- (14/05) Anh Hưng đi lấy Seal mới...</t>
         </r>
       </text>
     </comment>
@@ -183,7 +188,9 @@
             <family val="2"/>
           </rPr>
           <t>- Đã Submit SI, VGM
-- Đã gửi HBL và Draft MBL (Kèm AMS) cho các bên liên quan</t>
+- Đã gửi HBL và Draft MBL (Kèm AMS) cho các bên liên quan
+- (10/05) 4h Chiều đòi Debit - Đã đòi Debit.
+- (14/05) Chưa nhận đc xác nhận từ hãng tàu về Debit</t>
         </r>
       </text>
     </comment>
@@ -197,8 +204,10 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>- Submit SI, VGM trễ.
-- Đã gửi Draft MBL, HBL cho các bên liên quan.</t>
+          <t>- Submit SI, VGM trễ. (Vấn đề do hãng tàu không cấp đc Cont)
+- Đã gửi Draft MBL, HBL cho các bên liên quan.
+- (10/05) 4h chiều đòi Debit - Đã đòi Debit.
+- (14/05) Chưa nhận được xác nhận từ hãng tàu về Debit.</t>
         </r>
       </text>
     </comment>
@@ -212,9 +221,10 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">- Đã Submit SI, VGM.
-- chưa làm AMS.
-</t>
+          <t>- Đã Submit SI, VGM.
+- chưa làm AMS.(Có gì đó sai sai)
+- (10/05) Chiều đòi Debit, tàu 11h tối nay mới chạy - Đã đòi Debit.
+- (14/05) Đã đưa Trang chuyển tiền - Đã gửi Debit cho đại lý</t>
         </r>
       </text>
     </comment>
@@ -228,7 +238,24 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>- Đã gửi Booking cho Shipper Lành Vegitigi</t>
+          <t>- Đã gửi Booking cho Shipper Lành Vegitigi
+- (09/05) Chưa xin hãng tàu extend deadline SI và VGM
+- (10/05) Đã xin hãng tàu extend - Làm trước SI, VGM.
+- (14/05) Đã có Debit - Đã gửi MBL revise cho Đại lý - Đang chờ chị Sam làm Job để chuyển bạc cho hãng tàu.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- Dead shipment</t>
         </r>
       </text>
     </comment>
@@ -237,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
   <si>
     <t>T NUMBER</t>
   </si>
@@ -426,6 +453,12 @@
   </si>
   <si>
     <t>ADNE</t>
+  </si>
+  <si>
+    <t>ADNE 275</t>
+  </si>
+  <si>
+    <t>19/05</t>
   </si>
 </sst>
 </file>
@@ -501,7 +534,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +551,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -550,7 +589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +655,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1689,10 +1737,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:AMJ20"/>
+  <dimension ref="A2:AMJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1754,8 @@
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="1014" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="1014" width="12.140625" customWidth="1"/>
     <col min="1015" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1738,6 +1787,12 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:1024" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1805,6 +1860,12 @@
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
       <c r="AMG5"/>
       <c r="AMH5"/>
       <c r="AMI5"/>
@@ -1927,6 +1988,12 @@
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -1936,7 +2003,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>22</v>
@@ -1952,6 +2019,12 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -1977,6 +2050,12 @@
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -2036,8 +2115,14 @@
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -2061,8 +2146,14 @@
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
@@ -2086,21 +2177,35 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="16"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>62</v>
       </c>
@@ -2112,6 +2217,31 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I20">

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLG" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,8 @@
             <family val="2"/>
           </rPr>
           <t>- Đã gửi Booking Note cho Shipper (Chờ lệnh kéo Cont từ đại lý).
-- (14/05) Đại lý báo CANCEL - Đã thông báo Shipper(Chưa phản hồi)</t>
+- (14/05) Đại lý báo CANCEL - Đã thông báo Shipper(Chưa phản hồi).
+- Hủy...</t>
         </r>
       </text>
     </comment>
@@ -155,7 +156,8 @@
           </rPr>
           <t>- Đã Submit SI, VGM.
 - Đã gửi Draft MBL cho anh Hoàn
-- (10/05) 4h Chiều đòi Debit - Đã có Debit Note từ hãng tàu, đang chờ hãng tàu chỉnh sửa - Đã lập lệnh, chờ Confirm OK từ hãng tàu về Debit</t>
+- (10/05) 4h Chiều đòi Debit - Đã có Debit Note từ hãng tàu, đang chờ hãng tàu chỉnh sửa - Đã lập lệnh, chờ Confirm OK từ hãng tàu về Debit.
+- (14/05) Đã chuyển tiền cho hãng tàu - Chưa đòi Bill</t>
         </r>
       </text>
     </comment>
@@ -190,7 +192,7 @@
           <t>- Đã Submit SI, VGM
 - Đã gửi HBL và Draft MBL (Kèm AMS) cho các bên liên quan
 - (10/05) 4h Chiều đòi Debit - Đã đòi Debit.
-- (14/05) Chưa nhận đc xác nhận từ hãng tàu về Debit</t>
+- (14/05) Chưa nhận đc xác nhận từ hãng tàu về Debit - Đã có Debit mới, chưa chuyển tiền cho hãng tàu, hạn cuối ngày 16/05 - Ngày mai đưa chị Thủy duyệt và lập lệnh chuyển cho hãng tàu.</t>
         </r>
       </text>
     </comment>
@@ -207,7 +209,7 @@
           <t>- Submit SI, VGM trễ. (Vấn đề do hãng tàu không cấp đc Cont)
 - Đã gửi Draft MBL, HBL cho các bên liên quan.
 - (10/05) 4h chiều đòi Debit - Đã đòi Debit.
-- (14/05) Chưa nhận được xác nhận từ hãng tàu về Debit.</t>
+- (14/05) Chưa nhận được xác nhận từ hãng tàu về Debit - Đã có Debit mới, chị Sam đang làm Job.</t>
         </r>
       </text>
     </comment>
@@ -224,7 +226,8 @@
           <t>- Đã Submit SI, VGM.
 - chưa làm AMS.(Có gì đó sai sai)
 - (10/05) Chiều đòi Debit, tàu 11h tối nay mới chạy - Đã đòi Debit.
-- (14/05) Đã đưa Trang chuyển tiền - Đã gửi Debit cho đại lý</t>
+- (14/05) Đã đưa Trang chuyển tiền - Đã gửi Debit cho đại lý - Trang đã chuyển tiền.
+- Đã có Seaway Bill từ hãng tàu.</t>
         </r>
       </text>
     </comment>
@@ -241,7 +244,7 @@
           <t>- Đã gửi Booking cho Shipper Lành Vegitigi
 - (09/05) Chưa xin hãng tàu extend deadline SI và VGM
 - (10/05) Đã xin hãng tàu extend - Làm trước SI, VGM.
-- (14/05) Đã có Debit - Đã gửi MBL revise cho Đại lý - Đang chờ chị Sam làm Job để chuyển bạc cho hãng tàu.</t>
+- (14/05) Đã có Debit - Đã gửi MBL revise cho Đại lý - Đang chờ chị Sam làm Job để chuyển bạc cho hãng tàu - Đã chuyển bạc cho hãng tàu, chờ MBL Sur từ hãng tàu - Đã gửi Debit cho các bên.</t>
         </r>
       </text>
     </comment>
@@ -1739,14 +1742,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:AMJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="16380" windowHeight="8010" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLG" sheetId="1" r:id="rId1"/>
     <sheet name="Done" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Done!$A$2:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Done!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FLG!$A$2:$I$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -140,7 +140,8 @@
           </rPr>
           <t>- Đã gửi Booking Note cho Shipper (Chờ lệnh kéo Cont từ đại lý).
 - (14/05) Đại lý báo CANCEL - Đã thông báo Shipper(Chưa phản hồi).
-- Hủy...</t>
+- Hủy…
+- (15/05) Chuyển Cont cho một Booking khác ...</t>
         </r>
       </text>
     </comment>
@@ -157,7 +158,8 @@
           <t>- Đã Submit SI, VGM.
 - Đã gửi Draft MBL cho anh Hoàn
 - (10/05) 4h Chiều đòi Debit - Đã có Debit Note từ hãng tàu, đang chờ hãng tàu chỉnh sửa - Đã lập lệnh, chờ Confirm OK từ hãng tàu về Debit.
-- (14/05) Đã chuyển tiền cho hãng tàu - Chưa đòi Bill</t>
+- (14/05) Đã chuyển tiền cho hãng tàu - Chưa đòi Bill.
+- (15/05) Đã có chi phí nội địa. Mai đưa chị Thủy làm Job</t>
         </r>
       </text>
     </comment>
@@ -189,10 +191,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>- Đã Submit SI, VGM
+          <t xml:space="preserve">- Đã Submit SI, VGM
 - Đã gửi HBL và Draft MBL (Kèm AMS) cho các bên liên quan
 - (10/05) 4h Chiều đòi Debit - Đã đòi Debit.
-- (14/05) Chưa nhận đc xác nhận từ hãng tàu về Debit - Đã có Debit mới, chưa chuyển tiền cho hãng tàu, hạn cuối ngày 16/05 - Ngày mai đưa chị Thủy duyệt và lập lệnh chuyển cho hãng tàu.</t>
+- (14/05) Chưa nhận đc xác nhận từ hãng tàu về Debit - Đã có Debit mới, chưa chuyển tiền cho hãng tàu, hạn cuối ngày 16/05 - Ngày mai đưa chị Thủy duyệt và lập lệnh chuyển cho hãng tàu.
+- (15/05) Đã chuyển tiền cho hãng tàu - </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- Chưa gửi MBL cho đại lý...</t>
         </r>
       </text>
     </comment>
@@ -206,10 +223,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>- Submit SI, VGM trễ. (Vấn đề do hãng tàu không cấp đc Cont)
+          <t xml:space="preserve">- Submit SI, VGM trễ. (Vấn đề do hãng tàu không cấp đc Cont)
 - Đã gửi Draft MBL, HBL cho các bên liên quan.
 - (10/05) 4h chiều đòi Debit - Đã đòi Debit.
-- (14/05) Chưa nhận được xác nhận từ hãng tàu về Debit - Đã có Debit mới, chị Sam đang làm Job.</t>
+- (14/05) Chưa nhận được xác nhận từ hãng tàu về Debit - Đã có Debit mới, chị Sam đang làm Job.
+- (15/05) Đã chuyển tiền cho hãng tàu - </t>
         </r>
       </text>
     </comment>
@@ -241,14 +259,29 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>- Đã gửi Booking cho Shipper Lành Vegitigi
-- (09/05) Chưa xin hãng tàu extend deadline SI và VGM
-- (10/05) Đã xin hãng tàu extend - Làm trước SI, VGM.
-- (14/05) Đã có Debit - Đã gửi MBL revise cho Đại lý - Đang chờ chị Sam làm Job để chuyển bạc cho hãng tàu - Đã chuyển bạc cho hãng tàu, chờ MBL Sur từ hãng tàu - Đã gửi Debit cho các bên.</t>
+          <t xml:space="preserve">- (15/05) Mr Lâm đã chính thức khởi động dự án ADNE280 - Đang đợi Booking Note từ hãng tàu - Internet Booking Reference Number CC5384638287 - </t>
         </r>
       </text>
     </comment>
     <comment ref="H19" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- Đã gửi Booking cho Shipper Lành Vegitigi
+- (09/05) Chưa xin hãng tàu extend deadline SI và VGM
+- (10/05) Đã xin hãng tàu extend - Làm trước SI, VGM.
+- (14/05) Đã có Debit - Đã gửi MBL revise cho Đại lý - Đang chờ chị Sam làm Job để chuyển bạc cho hãng tàu - Đã chuyển bạc cho hãng tàu, chờ MBL Sur từ hãng tàu - Đã gửi Debit cho các bên.
+- (15/05) Tàu delay các kiểu....sửa Bill.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="1">
       <text>
         <r>
           <rPr>
@@ -267,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
   <si>
     <t>T NUMBER</t>
   </si>
@@ -462,6 +495,12 @@
   </si>
   <si>
     <t>19/05</t>
+  </si>
+  <si>
+    <t>ADNE 280</t>
+  </si>
+  <si>
+    <t>28/05</t>
   </si>
 </sst>
 </file>
@@ -537,7 +576,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,6 +711,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,7 +987,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -982,7 +1030,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1025,7 +1073,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1068,7 +1116,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1740,10 +1788,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:AMJ21"/>
+  <dimension ref="A2:AMJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,75 +2204,85 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="16"/>
+      <c r="A18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
+      <c r="I20" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -2245,8 +2303,27 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I20">
+  <autoFilter ref="A2:I22">
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="16380" windowHeight="8010" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="16380" windowHeight="7950" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLG" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,8 @@
           <t>- Đã gửi Booking Note cho Shipper (Chờ lệnh kéo Cont từ đại lý).
 - (14/05) Đại lý báo CANCEL - Đã thông báo Shipper(Chưa phản hồi).
 - Hủy…
-- (15/05) Chuyển Cont cho một Booking khác ...</t>
+- (15/05) Chuyển Cont cho một Booking khác …
+- (16/05) Đã thông báo Hủy Booking…Almost Done !</t>
         </r>
       </text>
     </comment>
@@ -173,11 +174,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>- Đã submit SI, VGM (Ontime).
+          <t xml:space="preserve">- Đã submit SI, VGM (Ontime).
 - Đang chờ Draft MBL
 -(10/05) Đã gửi Draf Bill cho anh Hoàn, chờ ảnh phản hồi - Đang bị kiểm hóa các kiểu…(Phức tạp).
 - Rớt tàu do kiểm hóa, đã đổi lại Booking Note mới - Đã gửi cho các bên.
-- (14/05) Anh Hưng đi lấy Seal mới...</t>
+- (14/05) Anh Hưng đi lấy Seal mới...
+- </t>
         </r>
       </text>
     </comment>
@@ -259,7 +261,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">- (15/05) Mr Lâm đã chính thức khởi động dự án ADNE280 - Đang đợi Booking Note từ hãng tàu - Internet Booking Reference Number CC5384638287 - </t>
+          <t>- (15/05) Mr Lâm đã chính thức khởi động dự án ADNE280 - Đang đợi Booking Note từ hãng tàu - Internet Booking Reference Number CC5384638287
+- (16/05) Đang chờ re-new lại số hợp đồng để release booking.</t>
         </r>
       </text>
     </comment>
@@ -277,7 +280,7 @@
 - (09/05) Chưa xin hãng tàu extend deadline SI và VGM
 - (10/05) Đã xin hãng tàu extend - Làm trước SI, VGM.
 - (14/05) Đã có Debit - Đã gửi MBL revise cho Đại lý - Đang chờ chị Sam làm Job để chuyển bạc cho hãng tàu - Đã chuyển bạc cho hãng tàu, chờ MBL Sur từ hãng tàu - Đã gửi Debit cho các bên.
-- (15/05) Tàu delay các kiểu....sửa Bill.</t>
+- (15/05) Tàu delay các kiểu....sửa Bill - đã sửa Bill</t>
         </r>
       </text>
     </comment>
@@ -295,12 +298,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="H21" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- (16/05 ) Đang chờ Booking từ hãng tàu - Đã gửi booking cho các bên</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>T NUMBER</t>
   </si>
@@ -501,6 +518,18 @@
   </si>
   <si>
     <t>28/05</t>
+  </si>
+  <si>
+    <t>ADNE 285</t>
+  </si>
+  <si>
+    <t>25/05</t>
+  </si>
+  <si>
+    <t>HCM - TACOMA</t>
+  </si>
+  <si>
+    <t>Trước 16h ngày 17/05</t>
   </si>
 </sst>
 </file>
@@ -597,14 +626,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1790,8 +1819,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:AMJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,7 +1866,7 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
@@ -1886,7 +1915,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>57</v>
       </c>
@@ -1909,8 +1938,10 @@
         <v>41</v>
       </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="25"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
@@ -2059,7 +2090,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>24</v>
@@ -2069,7 +2100,7 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
@@ -2225,7 +2256,7 @@
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
@@ -2256,7 +2287,7 @@
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="16"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
@@ -2286,17 +2317,27 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -2315,7 +2356,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Done" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Done!$A$2:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Done!$A$2:$I$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FLG!$A$2:$I$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -193,11 +193,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">- Đã Submit SI, VGM
+          <t>- Đã Submit SI, VGM
 - Đã gửi HBL và Draft MBL (Kèm AMS) cho các bên liên quan
 - (10/05) 4h Chiều đòi Debit - Đã đòi Debit.
 - (14/05) Chưa nhận đc xác nhận từ hãng tàu về Debit - Đã có Debit mới, chưa chuyển tiền cho hãng tàu, hạn cuối ngày 16/05 - Ngày mai đưa chị Thủy duyệt và lập lệnh chuyển cho hãng tàu.
-- (15/05) Đã chuyển tiền cho hãng tàu - </t>
+- (15/05) Đã chuyển tiền cho hãng tàu
+- (17/05) Đã gửi Debit cho Shipper...???</t>
         </r>
       </text>
     </comment>
@@ -225,15 +226,44 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">- Submit SI, VGM trễ. (Vấn đề do hãng tàu không cấp đc Cont)
+          <t>- Submit SI, VGM trễ. (Vấn đề do hãng tàu không cấp đc Cont)
 - Đã gửi Draft MBL, HBL cho các bên liên quan.
 - (10/05) 4h chiều đòi Debit - Đã đòi Debit.
 - (14/05) Chưa nhận được xác nhận từ hãng tàu về Debit - Đã có Debit mới, chị Sam đang làm Job.
-- (15/05) Đã chuyển tiền cho hãng tàu - </t>
+- (15/05) Đã chuyển tiền cho hãng tàu
+- (17/05) Đã gửi Debit cho Shipper...???</t>
         </r>
       </text>
     </comment>
     <comment ref="H17" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chờ Booking</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chờ Booking</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -251,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="1">
+    <comment ref="H20" authorId="1">
       <text>
         <r>
           <rPr>
@@ -262,11 +292,11 @@
             <charset val="1"/>
           </rPr>
           <t>- (15/05) Mr Lâm đã chính thức khởi động dự án ADNE280 - Đang đợi Booking Note từ hãng tàu - Internet Booking Reference Number CC5384638287
-- (16/05) Đang chờ re-new lại số hợp đồng để release booking.</t>
+- (16/05) Đang chờ re-new lại số hợp đồng để release booking - Đã gửi Booking cho anh Lâm.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="1">
+    <comment ref="H21" authorId="1">
       <text>
         <r>
           <rPr>
@@ -284,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="1">
+    <comment ref="H22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -298,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="1">
+    <comment ref="H23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -308,7 +338,36 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>- (16/05 ) Đang chờ Booking từ hãng tàu - Đã gửi booking cho các bên</t>
+          <t xml:space="preserve">- (16/05 ) Đang chờ Booking từ hãng tàu - Đã gửi booking cho các bên.
+- (17/05) Đã trả lời tâm thư Mr Lành… - </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Application number(s)： 18051708524183</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Application number(s)： 18051708594370 </t>
         </r>
       </text>
     </comment>
@@ -317,7 +376,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="80">
   <si>
     <t>T NUMBER</t>
   </si>
@@ -530,6 +589,33 @@
   </si>
   <si>
     <t>Trước 16h ngày 17/05</t>
+  </si>
+  <si>
+    <t>Trước 10h ngày 25/05</t>
+  </si>
+  <si>
+    <t>Trước 24h ngày 25/05</t>
+  </si>
+  <si>
+    <t>ADNE 286</t>
+  </si>
+  <si>
+    <t>ADNE 287</t>
+  </si>
+  <si>
+    <t>31/05</t>
+  </si>
+  <si>
+    <t>29/05</t>
+  </si>
+  <si>
+    <t>ADNE 282</t>
+  </si>
+  <si>
+    <t>ADNE 283</t>
+  </si>
+  <si>
+    <t>07/06</t>
   </si>
 </sst>
 </file>
@@ -626,14 +712,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -739,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1014,9 +1100,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1057,9 +1143,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1100,9 +1186,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1143,9 +1229,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1817,10 +1903,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:AMJ22"/>
+  <dimension ref="A2:AMI26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,12 +1919,11 @@
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="1014" width="12.140625" customWidth="1"/>
-    <col min="1015" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="10" max="1013" width="12.140625" customWidth="1"/>
+    <col min="1014" max="1024" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1024" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1023" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1866,14 +1951,13 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:1024" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1023" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1889,12 +1973,12 @@
       <c r="I3" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AMF3"/>
       <c r="AMG3"/>
       <c r="AMH3"/>
       <c r="AMI3"/>
-      <c r="AMJ3"/>
-    </row>
-    <row r="4" spans="1:1024" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1023" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1910,12 +1994,12 @@
       <c r="I4" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AMF4"/>
       <c r="AMG4"/>
       <c r="AMH4"/>
       <c r="AMI4"/>
-      <c r="AMJ4"/>
-    </row>
-    <row r="5" spans="1:1024" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1023" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>57</v>
       </c>
@@ -1941,18 +2025,17 @@
       <c r="I5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="AMF5"/>
       <c r="AMG5"/>
       <c r="AMH5"/>
       <c r="AMI5"/>
-      <c r="AMJ5"/>
-    </row>
-    <row r="6" spans="1:1024" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1023" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1968,12 +2051,12 @@
       <c r="I6" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AMF6"/>
       <c r="AMG6"/>
       <c r="AMH6"/>
       <c r="AMI6"/>
-      <c r="AMJ6"/>
-    </row>
-    <row r="7" spans="1:1024" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1023" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1989,12 +2072,12 @@
       <c r="I7" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AMF7"/>
       <c r="AMG7"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
-      <c r="AMJ7"/>
-    </row>
-    <row r="8" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1023" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -2011,7 +2094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1023" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +2111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1023" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
@@ -2045,7 +2128,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
@@ -2069,14 +2152,13 @@
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -2100,14 +2182,13 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
@@ -2131,14 +2212,13 @@
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1023" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
@@ -2155,7 +2235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1023" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>34</v>
       </c>
@@ -2172,7 +2252,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
@@ -2196,175 +2276,281 @@
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="24"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="24"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-    </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>67</v>
+      <c r="I20" s="25"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
+      <c r="I22" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22">
+  <autoFilter ref="A2:I26">
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -245,7 +245,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Chờ Booking</t>
+          <t>Chờ Booking- Đã gửi Booking cho Shipper</t>
         </r>
       </text>
     </comment>
@@ -259,7 +259,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Chờ Booking</t>
+          <t>Chờ Booking - Đã gửi Booking cho Shipper</t>
         </r>
       </text>
     </comment>
@@ -353,7 +353,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Application number(s)： 18051708524183</t>
+          <t>Application number(s)： 18051708524183
+- (18/05) Đã có booking - Đã gửi đại lý - Đã đc gửi cho Shipper (Chưa gửi)</t>
         </r>
       </text>
     </comment>
@@ -367,7 +368,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Application number(s)： 18051708594370 </t>
+          <t>Application number(s)： 18051708594370 
+- (18/05) Đã có Booking - Đã gửi đại lý - Đã đc gửi cho Shipper (Chưa gửi)</t>
         </r>
       </text>
     </comment>
@@ -376,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="81">
   <si>
     <t>T NUMBER</t>
   </si>
@@ -594,9 +596,6 @@
     <t>Trước 10h ngày 25/05</t>
   </si>
   <si>
-    <t>Trước 24h ngày 25/05</t>
-  </si>
-  <si>
     <t>ADNE 286</t>
   </si>
   <si>
@@ -606,9 +605,6 @@
     <t>31/05</t>
   </si>
   <si>
-    <t>29/05</t>
-  </si>
-  <si>
     <t>ADNE 282</t>
   </si>
   <si>
@@ -616,6 +612,15 @@
   </si>
   <si>
     <t>07/06</t>
+  </si>
+  <si>
+    <t>Trước 12h ngày 25/05</t>
+  </si>
+  <si>
+    <t>Trước 11h ngày 30/05</t>
+  </si>
+  <si>
+    <t>Trước 11h ngày 06/06</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1911,7 @@
   <dimension ref="A2:AMI26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,13 +2289,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>38</v>
@@ -2312,13 +2317,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>38</v>
@@ -2463,7 +2468,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>40</v>
@@ -2481,16 +2486,20 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
+        <v>74</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="F24" s="17" t="s">
         <v>54</v>
       </c>
@@ -2498,7 +2507,7 @@
         <v>69</v>
       </c>
       <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
@@ -2507,16 +2516,20 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="F25" s="17" t="s">
         <v>54</v>
       </c>
@@ -2524,7 +2537,7 @@
         <v>69</v>
       </c>
       <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="16380" windowHeight="7950" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="16380" windowHeight="7890" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLG" sheetId="1" r:id="rId1"/>
     <sheet name="Done" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Done!$A$2:$I$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Done!$A$2:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FLG!$A$2:$I$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -174,12 +174,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">- Đã submit SI, VGM (Ontime).
+          <t>- Đã submit SI, VGM (Ontime).
 - Đang chờ Draft MBL
 -(10/05) Đã gửi Draf Bill cho anh Hoàn, chờ ảnh phản hồi - Đang bị kiểm hóa các kiểu…(Phức tạp).
 - Rớt tàu do kiểm hóa, đã đổi lại Booking Note mới - Đã gửi cho các bên.
 - (14/05) Anh Hưng đi lấy Seal mới...
-- </t>
+- Ngày 24/05 đưa kế toán chuyển tiền cho hãng tàu.</t>
         </r>
       </text>
     </comment>
@@ -291,12 +291,26 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">(22/05) Đã đặt Booking YML - </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
           <t>- (15/05) Mr Lâm đã chính thức khởi động dự án ADNE280 - Đang đợi Booking Note từ hãng tàu - Internet Booking Reference Number CC5384638287
 - (16/05) Đang chờ re-new lại số hợp đồng để release booking - Đã gửi Booking cho anh Lâm.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="1">
+    <comment ref="H22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -314,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="1">
+    <comment ref="H23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -328,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="1">
+    <comment ref="H24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -343,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="1">
+    <comment ref="H25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -358,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="1">
+    <comment ref="H26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -378,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
   <si>
     <t>T NUMBER</t>
   </si>
@@ -621,6 +635,15 @@
   </si>
   <si>
     <t>Trước 11h ngày 06/06</t>
+  </si>
+  <si>
+    <t>ADNE 261</t>
+  </si>
+  <si>
+    <t>HCM - ROTTERDAM</t>
+  </si>
+  <si>
+    <t>Trước 9h ngày 29/05</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1130,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1150,7 +1173,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1193,7 +1216,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1236,7 +1259,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1908,10 +1931,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:AMI26"/>
+  <dimension ref="A2:AMI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2323,9 @@
       <c r="D17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="F17" s="21" t="s">
         <v>40</v>
       </c>
@@ -2328,7 +2353,9 @@
       <c r="D18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="F18" s="21" t="s">
         <v>40</v>
       </c>
@@ -2375,25 +2402,23 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="25"/>
@@ -2404,104 +2429,104 @@
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="A21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
+      <c r="I23" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>79</v>
+      <c r="E24" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>69</v>
@@ -2516,19 +2541,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>80</v>
+      <c r="E25" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>54</v>
@@ -2546,24 +2571,54 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
     </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I26">
+  <autoFilter ref="A2:I27">
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="16380" windowHeight="7890" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="16380" windowHeight="7830" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLG" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,8 @@
 - (14/05) Đại lý báo CANCEL - Đã thông báo Shipper(Chưa phản hồi).
 - Hủy…
 - (15/05) Chuyển Cont cho một Booking khác …
-- (16/05) Đã thông báo Hủy Booking…Almost Done !</t>
+- (16/05) Đã thông báo Hủy Booking…Almost Done !
+- (23/05) Tái khởi động dự án. ETD:31/05/2018. Đã Book qua EMC - Application number(s)： 18052301568620</t>
         </r>
       </text>
     </comment>
@@ -392,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
   <si>
     <t>T NUMBER</t>
   </si>
@@ -569,15 +570,6 @@
   </si>
   <si>
     <t>ANTESCO</t>
-  </si>
-  <si>
-    <t>17/05</t>
-  </si>
-  <si>
-    <t>09/06</t>
-  </si>
-  <si>
-    <t>Trước 10h ngày 16/05</t>
   </si>
   <si>
     <t>ADNE</t>
@@ -1934,7 +1926,7 @@
   <dimension ref="A2:AMI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,7 +2019,7 @@
       <c r="AMH4"/>
       <c r="AMI4"/>
     </row>
-    <row r="5" spans="1:1023" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1023" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>57</v>
       </c>
@@ -2035,14 +2027,10 @@
         <v>58</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>61</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="17" t="s">
         <v>54</v>
       </c>
@@ -2050,9 +2038,7 @@
         <v>41</v>
       </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="I5" s="16"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
@@ -2194,13 +2180,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>24</v>
@@ -2312,19 +2298,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>40</v>
@@ -2342,19 +2328,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>40</v>
@@ -2402,13 +2388,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>38</v>
@@ -2418,7 +2404,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="25"/>
@@ -2430,19 +2416,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>31</v>
@@ -2490,7 +2476,7 @@
     </row>
     <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>33</v>
@@ -2511,25 +2497,25 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="25"/>
@@ -2541,25 +2527,25 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>54</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="25"/>
@@ -2571,25 +2557,25 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="25"/>
@@ -2601,7 +2587,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="16380" windowHeight="7830" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="16380" windowHeight="7770" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLG" sheetId="1" r:id="rId1"/>
@@ -353,8 +353,9 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">- (16/05 ) Đang chờ Booking từ hãng tàu - Đã gửi booking cho các bên.
-- (17/05) Đã trả lời tâm thư Mr Lành… - </t>
+          <t>- (16/05 ) Đang chờ Booking từ hãng tàu - Đã gửi booking cho các bên.
+- (17/05) Đã trả lời tâm thư Mr Lành… - 
+- (24/05) Đã submit SI, VGM</t>
         </r>
       </text>
     </comment>
@@ -711,7 +712,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +740,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +856,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1926,7 +1936,7 @@
   <dimension ref="A2:AMI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,7 +2518,7 @@
       <c r="D24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="26" t="s">
         <v>75</v>
       </c>
       <c r="F24" s="17" t="s">
@@ -2518,7 +2528,7 @@
         <v>66</v>
       </c>
       <c r="H24" s="16"/>
-      <c r="I24" s="25"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>

--- a/Milo Track.xlsx
+++ b/Milo Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="16380" windowHeight="7770" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="16380" windowHeight="7710" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLG" sheetId="1" r:id="rId1"/>
@@ -95,11 +95,25 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Administrator</author>
     <author/>
-    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-(25/05) Gửi mail xin lịch tàu…- Đã gửi email xin lịch tàu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -113,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -128,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,11 +157,12 @@
 - Hủy…
 - (15/05) Chuyển Cont cho một Booking khác …
 - (16/05) Đã thông báo Hủy Booking…Almost Done !
-- (23/05) Tái khởi động dự án. ETD:31/05/2018. Đã Book qua EMC - Application number(s)： 18052301568620</t>
+- (23/05) Tái khởi động dự án. ETD:31/05/2018. Đã Book qua EMC - Application number(s)： 18052301568620 - EMC release booking trong ngày - Không có ngày ETD:31/05.
+-(25/05) Dùng Booking của YML (Lô ADNE283) cho lô hàng này - Đã gửi cho shipper.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="1">
+    <comment ref="H11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="1">
+    <comment ref="H12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,11 +195,12 @@
 -(10/05) Đã gửi Draf Bill cho anh Hoàn, chờ ảnh phản hồi - Đang bị kiểm hóa các kiểu…(Phức tạp).
 - Rớt tàu do kiểm hóa, đã đổi lại Booking Note mới - Đã gửi cho các bên.
 - (14/05) Anh Hưng đi lấy Seal mới...
-- Ngày 24/05 đưa kế toán chuyển tiền cho hãng tàu.</t>
+- Ngày 24/05 đưa kế toán chuyển tiền cho hãng tàu.
+- (25/05) Đã chuyển tiền cho hãng tàu, đã có Bill nháp.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="1">
+    <comment ref="H13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,11 +215,12 @@
 - (10/05) 4h Chiều đòi Debit - Đã đòi Debit.
 - (14/05) Chưa nhận đc xác nhận từ hãng tàu về Debit - Đã có Debit mới, chưa chuyển tiền cho hãng tàu, hạn cuối ngày 16/05 - Ngày mai đưa chị Thủy duyệt và lập lệnh chuyển cho hãng tàu.
 - (15/05) Đã chuyển tiền cho hãng tàu
-- (17/05) Đã gửi Debit cho Shipper...???</t>
+- (17/05) Đã gửi Debit cho Shipper...???
+- (25/05) Đã nhắc shipper thanh toán tiền</t>
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="1">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="1">
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -232,11 +249,12 @@
 - (10/05) 4h chiều đòi Debit - Đã đòi Debit.
 - (14/05) Chưa nhận được xác nhận từ hãng tàu về Debit - Đã có Debit mới, chị Sam đang làm Job.
 - (15/05) Đã chuyển tiền cho hãng tàu
-- (17/05) Đã gửi Debit cho Shipper...???</t>
+- (17/05) Đã gửi Debit cho Shipper...???
+- (25/05) Đã nhắc Shipper thanh toán tiền</t>
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="1">
+    <comment ref="H17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,11 +264,12 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Chờ Booking- Đã gửi Booking cho Shipper</t>
+          <t>Chờ Booking- Đã gửi Booking cho Shipper
+- (25/05) Chờ SI và VGM từ Shipper để Submit YML</t>
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="1">
+    <comment ref="H18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,11 +279,12 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Chờ Booking - Đã gửi Booking cho Shipper</t>
+          <t>Chờ Booking - Đã gửi Booking cho Shipper
+- (25/05) Shipper không kịp hàng cho chuyến tàu ETD:31/05/2018 - Đã chuyển Booking này sang cho Antesco - Thông tin là có thể đi vào ngày 05/06, đang đợi Shipper xác nhận.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="1">
+    <comment ref="H19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="1">
+    <comment ref="H20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,11 +312,12 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">(22/05) Đã đặt Booking YML - </t>
+          <t>(22/05) Đã đặt Booking YML - Đang lằng nhằng các kiểu về ngày ETD.
+(25/05) Đã có 2 booking cho cùng một lô hàng với ETD ngày 07 và 14, Đợi xác nhận từ các bên.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="1">
+    <comment ref="H21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -307,11 +328,14 @@
             <charset val="1"/>
           </rPr>
           <t>- (15/05) Mr Lâm đã chính thức khởi động dự án ADNE280 - Đang đợi Booking Note từ hãng tàu - Internet Booking Reference Number CC5384638287
-- (16/05) Đang chờ re-new lại số hợp đồng để release booking - Đã gửi Booking cho anh Lâm.</t>
+- (16/05) Đang chờ re-new lại số hợp đồng để release booking - Đã gửi Booking cho anh Lâm.
+…………...
+(24/05) Đã Submit SI, VGM.
+(25/05) Đã sửa thông tin trên bill nháp, chờ mail revise Bill từ hãng tàu để gửi cho Ashin.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="1">
+    <comment ref="H22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,11 +349,12 @@
 - (09/05) Chưa xin hãng tàu extend deadline SI và VGM
 - (10/05) Đã xin hãng tàu extend - Làm trước SI, VGM.
 - (14/05) Đã có Debit - Đã gửi MBL revise cho Đại lý - Đang chờ chị Sam làm Job để chuyển bạc cho hãng tàu - Đã chuyển bạc cho hãng tàu, chờ MBL Sur từ hãng tàu - Đã gửi Debit cho các bên.
-- (15/05) Tàu delay các kiểu....sửa Bill - đã sửa Bill</t>
+- (15/05) Tàu delay các kiểu....sửa Bill - đã sửa Bill
+...........................</t>
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="1">
+    <comment ref="H23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="1">
+    <comment ref="H24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,11 +380,12 @@
           </rPr>
           <t>- (16/05 ) Đang chờ Booking từ hãng tàu - Đã gửi booking cho các bên.
 - (17/05) Đã trả lời tâm thư Mr Lành… - 
-- (24/05) Đã submit SI, VGM</t>
+- (24/05) Đã submit SI, VGM
+(25/05) Đã có Bill revise từ YML, đã nhận đc Confirm Bill từ Ashin - Chưa có phản hồi về Bill từ Vegitigi.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="1">
+    <comment ref="H25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,11 +396,13 @@
             <charset val="1"/>
           </rPr>
           <t>Application number(s)： 18051708524183
-- (18/05) Đã có booking - Đã gửi đại lý - Đã đc gửi cho Shipper (Chưa gửi)</t>
+- (18/05) Đã có booking - Đã gửi đại lý - Đã đc gửi cho Shipper (Chưa gửi)
+(…...) Đã gửi Booking cho Mr Lành.
+(25/05) Mr Lành báo 28/05 sẽ gửi SI và VGM</t>
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="1">
+    <comment ref="H26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +413,9 @@
             <charset val="1"/>
           </rPr>
           <t>Application number(s)： 18051708594370 
-- (18/05) Đã có Booking - Đã gửi đại lý - Đã đc gửi cho Shipper (Chưa gửi)</t>
+- (18/05) Đã có Booking - Đã gửi đại lý - Đã đc gửi cho Shipper (Chưa gửi)
+(……..) Đã gửi Booking cho Mr Lành.
+(25/05) Chưa nhận được thông tin sẽ đi được từ Mr Lành.</t>
         </r>
       </text>
     </comment>
@@ -394,7 +424,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="81">
   <si>
     <t>T NUMBER</t>
   </si>
@@ -643,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -711,6 +741,18 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -750,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -773,13 +815,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,6 +911,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1935,8 +2001,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:AMI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,8 +2047,10 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="J2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="28"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
@@ -2003,12 +2071,14 @@
       <c r="I3" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="AMF3"/>
       <c r="AMG3"/>
       <c r="AMH3"/>
       <c r="AMI3"/>
     </row>
-    <row r="4" spans="1:1023" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1023" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2024,6 +2094,8 @@
       <c r="I4" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="AMF4"/>
       <c r="AMG4"/>
       <c r="AMH4"/>
@@ -2040,17 +2112,19 @@
         <v>71</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="F5" s="17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
@@ -2059,7 +2133,7 @@
       <c r="AMH5"/>
       <c r="AMI5"/>
     </row>
-    <row r="6" spans="1:1023" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1023" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2075,12 +2149,14 @@
       <c r="I6" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
       <c r="AMF6"/>
       <c r="AMG6"/>
       <c r="AMH6"/>
       <c r="AMI6"/>
     </row>
-    <row r="7" spans="1:1023" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1023" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2096,12 +2172,14 @@
       <c r="I7" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
       <c r="AMF7"/>
       <c r="AMG7"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
     </row>
-    <row r="8" spans="1:1023" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1023" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -2117,8 +2195,10 @@
       <c r="I8" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:1023" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:1023" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -2134,8 +2214,10 @@
       <c r="I9" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:1023" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:1023" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
@@ -2151,6 +2233,8 @@
       <c r="I10" s="16" t="s">
         <v>56</v>
       </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2176,8 +2260,8 @@
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -2348,9 +2432,6 @@
       </c>
       <c r="D18" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>40</v>
@@ -2622,6 +2703,9 @@
       <sortCondition ref="B2:B20"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="J2:K11"/>
+  </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
